--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F0D1FB-D2F1-4AA4-88C2-3E14FB3C11C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B6291-7188-47AC-B8FC-3C4277D66626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试buff</t>
+    <t>测试燃烧buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,16 +592,16 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>2000</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B6291-7188-47AC-B8FC-3C4277D66626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325BFF9D-BE97-4225-BF64-672CBDCCAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>测试燃烧buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试反伤buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,22 +452,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -541,7 +545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -579,12 +583,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -602,6 +606,26 @@
       </c>
       <c r="G6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325BFF9D-BE97-4225-BF64-672CBDCCAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8947B32B-0034-45F3-A1C0-3752375EF7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,19 +455,19 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -583,12 +583,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>101</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>5</v>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8947B32B-0034-45F3-A1C0-3752375EF7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D5DDD-D2FD-47BB-B045-5CB1D6BE728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jump Yellow</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{8112F5BC-A048-4B85-BAF7-93CAAEBCFC23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不填或者0：无限制</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +163,18 @@
   </si>
   <si>
     <t>测试反伤buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLayerNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大叠加层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +196,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,8 +518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -463,11 +530,12 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,28 +557,31 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -524,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -539,13 +610,16 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -562,33 +636,36 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -602,13 +679,16 @@
         <v>2000</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -621,10 +701,10 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10</v>
       </c>
     </row>
@@ -632,5 +712,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D5DDD-D2FD-47BB-B045-5CB1D6BE728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C406EE-D7AE-4002-AD0D-401D555A12E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>最大叠加层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试护盾buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,10 +254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,6 +708,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>102</v>
+      </c>
+      <c r="E8">
+        <v>5000</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C406EE-D7AE-4002-AD0D-401D555A12E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694062FE-37E4-4338-9FE4-7C0ACEC21FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="4905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694062FE-37E4-4338-9FE4-7C0ACEC21FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8731ED60-6D92-44F8-8E7B-E6291ADC95CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="4905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="5010" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="buff描述" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,8 +61,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jump Yellow</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A3297F4E-244E-445A-A4EA-A317CD60F89B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不填或者0：无限制</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -179,6 +216,30 @@
   </si>
   <si>
     <t>测试护盾buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万胶王被动buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万胶王被动buff，带胶武器释放前发射一子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能胶ITemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹命中特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,8 +298,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,10 +789,170 @@
         <v>200</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>10301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>103</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CD55F7-1E11-45DC-96A6-43343589893E}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8731ED60-6D92-44F8-8E7B-E6291ADC95CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702F6E9-356F-4D02-A4FE-C9966F293BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="5010" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="7740" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,7 +898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702F6E9-356F-4D02-A4FE-C9966F293BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753077D3-F272-4A7E-ABB2-D3B93423A88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="7740" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>子弹命中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹结束后留下的标记子弹ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +590,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,10 +807,13 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +829,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,7 +940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -948,6 +955,9 @@
       </c>
       <c r="G4" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753077D3-F272-4A7E-ABB2-D3B93423A88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E4A5C-02E5-4C2B-9E1B-A016F44E7833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="4390" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{786B0696-B1FD-47CF-89A1-0C5C010D742B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+[InspectorName("当前血量")]
+        Hp = 1,
+        [InspectorName("最大血量")]
+        MaxHp = 2,
+        [InspectorName("当前蓝量")]
+        Power = 3,
+        [InspectorName("最大蓝量")]
+        MaxPower = 4,
+        [InspectorName("护盾")]
+        HuDun = 5,
+        [InspectorName("护盾增益")]
+        HuDunBoost = 6,
+        [InspectorName("技能急速")]
+        CooldownReduce = 7,
+        [InspectorName("攻击力")]
+        AttackDamage = 8,</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -244,6 +285,42 @@
   </si>
   <si>
     <t>子弹结束后留下的标记子弹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板300开始是属性修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加目标属性固定值,销毁时恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击后给自己加buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次主动技能释放后给释放者加bufflist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新其他同Idbuff时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,23 +664,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="9.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,14 +689,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
@@ -627,36 +705,39 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
@@ -665,8 +746,8 @@
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -681,13 +762,16 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -697,7 +781,7 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -706,41 +790,44 @@
       <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>100</v>
       </c>
       <c r="E6">
@@ -749,71 +836,116 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>102</v>
       </c>
       <c r="E8">
         <v>5000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10301</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>103</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>4</v>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10401</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1">
+        <v>104</v>
+      </c>
+      <c r="M10">
+        <v>30101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>30101</v>
+      </c>
+      <c r="D12" s="1">
+        <v>301</v>
+      </c>
+      <c r="E12">
+        <v>5000</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -826,22 +958,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CD55F7-1E11-45DC-96A6-43343589893E}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -873,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -905,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -940,7 +1072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -958,6 +1090,31 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E4A5C-02E5-4C2B-9E1B-A016F44E7833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C18516-E831-4A77-B860-E13B6705B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="4390" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="5000" windowWidth="27080" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{786B0696-B1FD-47CF-89A1-0C5C010D742B}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{786B0696-B1FD-47CF-89A1-0C5C010D742B}">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -321,6 +321,38 @@
   </si>
   <si>
     <t>刷新其他同Idbuff时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定护盾buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定护盾值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值+最大生命值比例护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加技能急速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SfxID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,12 +708,12 @@
     <col min="4" max="4" width="9.9140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -708,29 +740,32 @@
       <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -749,7 +784,7 @@
       <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" t="s">
@@ -765,13 +800,16 @@
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -793,34 +831,37 @@
       <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -836,14 +877,14 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -856,14 +897,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -876,11 +917,11 @@
       <c r="E8">
         <v>5000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10301</v>
       </c>
@@ -890,20 +931,20 @@
       <c r="D9" s="1">
         <v>103</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10401</v>
       </c>
@@ -913,11 +954,11 @@
       <c r="D10" s="1">
         <v>104</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>30101</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -925,10 +966,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>30101</v>
       </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" s="1">
         <v>301</v>
       </c>
@@ -941,10 +985,30 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="I12">
+      <c r="J12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10501</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>20</v>
       </c>
     </row>
@@ -958,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CD55F7-1E11-45DC-96A6-43343589893E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1072,48 +1136,73 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>103</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>301</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Config/Buff.xlsx
+++ b/Config/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C18516-E831-4A77-B860-E13B6705B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88404E0-84BF-4AAD-80F6-E7917AED38F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="5000" windowWidth="27080" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21705" yWindow="15360" windowWidth="21810" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1004,9 @@
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
